--- a/IMS/App_Data/IndicatorAlgorithm.xlsx
+++ b/IMS/App_Data/IndicatorAlgorithm.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebDev\IMS\IMS\App_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IMS\IMS\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,564 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="222">
   <si>
     <t>获取项</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>操作符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b03597b4-3c74-4a1c-850e-773da10b8797</t>
+  </si>
+  <si>
+    <t>c31950eb-76e4-44c3-908f-8ebd819d1129</t>
+  </si>
+  <si>
+    <t>813d2540-f5c2-44aa-a25b-52ef3e5c84e4</t>
+  </si>
+  <si>
+    <t>病床使用率</t>
+  </si>
+  <si>
+    <t>a4b55620-3bdc-4c97-9f19-7f3a554846e8</t>
+  </si>
+  <si>
+    <t>0d63c949-4568-4062-93a2-ca3f2dee31bb</t>
+  </si>
+  <si>
+    <t>20d3efae-1f40-45a2-bacd-16a64a7a8da8</t>
+  </si>
+  <si>
+    <t>74905836-6550-4e85-9087-c25d90e4f7f0</t>
+  </si>
+  <si>
+    <t>f0a7a2b2-325e-4bfe-a674-ff34cff45a26</t>
+  </si>
+  <si>
+    <t>CD型病例比例</t>
+  </si>
+  <si>
+    <t>854f571f-1f0d-44b2-8e16-66efb8d8ddb8</t>
+  </si>
+  <si>
+    <t>99fff72c-c59a-4bfb-b80e-2f03c4a26b6d</t>
+  </si>
+  <si>
+    <t>d8fd5d5a-2453-4aa0-a5b2-16c8cbdb31e4</t>
+  </si>
+  <si>
+    <t>药品费用比例</t>
+  </si>
+  <si>
+    <t>588a17e1-e96b-4216-8ec1-0c9d2cd13096</t>
+  </si>
+  <si>
+    <t>4d8c228b-8b1d-49d6-b83d-10e9b23ad54a</t>
+  </si>
+  <si>
+    <t>病历回收率</t>
+  </si>
+  <si>
+    <t>5522161d-e639-4f8e-bb45-d9008494fd95</t>
+  </si>
+  <si>
+    <t>0cb30600-abbb-4f51-a8e0-e2b4095e3874</t>
+  </si>
+  <si>
+    <t>63b9ab7c-52c4-4be7-8172-09ceda8912f0</t>
+  </si>
+  <si>
+    <t>d94ea76a-8e91-486e-97f4-ee2ca5e309a2</t>
+  </si>
+  <si>
+    <t>51f54ac1-b8af-40ac-8897-d5b07fe6f8a6</t>
+  </si>
+  <si>
+    <t>68cfea10-2e39-4dce-96e1-51101b129791</t>
+  </si>
+  <si>
+    <t>d7c81261-76a0-4727-8841-366e8f101833</t>
+  </si>
+  <si>
+    <t>医院感染漏报率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b2d132f2-2120-4eb2-a184-0bb993eec424</t>
+  </si>
+  <si>
+    <t>00fc9ede-5319-458f-a5ac-78b592b96446</t>
+  </si>
+  <si>
+    <t>9b3a6011-5b20-430d-ac8e-dccab9b830fb</t>
+  </si>
+  <si>
+    <t>a15a4c95-52ba-49e9-a26d-ec950684e640</t>
+  </si>
+  <si>
+    <t>40186f98-50b6-4b7c-a916-c390929aca9d</t>
+  </si>
+  <si>
+    <t>a276151a-8d3c-4c2d-8b82-99c8fb935b81</t>
+  </si>
+  <si>
+    <t>1be3a708-c4f4-4448-94c1-fa9b781cb316</t>
+  </si>
+  <si>
+    <t>f4f2e6ed-50cd-43b4-8363-f5c0ef202a6f</t>
+  </si>
+  <si>
+    <t>84433791-f745-406a-8cd0-4ca28986b74e</t>
+  </si>
+  <si>
+    <t>使用特殊级抗菌药物前病原学送检率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb6dc67a-d1a2-43b7-8421-560bded35074</t>
+  </si>
+  <si>
+    <t>af0c00f8-d223-4833-8210-6924b1ae0cef</t>
+  </si>
+  <si>
+    <t>057f35d2-97ee-4f49-9cd6-ef202846b2db</t>
+  </si>
+  <si>
+    <t>24a96b25-507d-41d9-98b5-6f7b84560362</t>
+  </si>
+  <si>
+    <t>52f06d0d-cfdf-49db-bc31-c8955d3f75e1</t>
+  </si>
+  <si>
+    <t>59feb332-349b-4c35-9d17-fa5d4c9223c6</t>
+  </si>
+  <si>
+    <t>18e97da0-bd96-4216-b639-2fec2ff24c36</t>
+  </si>
+  <si>
+    <t>608ff377-55e5-463e-9b3b-aba9160fbad9</t>
+  </si>
+  <si>
+    <t>a47c964c-a30e-4ca3-ba41-47ec1c9e76b6</t>
+  </si>
+  <si>
+    <t>bbab2916-13c7-4391-899c-7c3f324ed0ac</t>
+  </si>
+  <si>
+    <t>抗菌药物使用强度</t>
+  </si>
+  <si>
+    <t>ba859fa5-1303-4b96-8c87-3eee63c7270b</t>
+  </si>
+  <si>
+    <t>0a7df170-d7d3-421b-8302-50cb2c08cf38</t>
+  </si>
+  <si>
+    <t>3ae71115-c7ba-4ec8-a847-7b16a8f5b1fc</t>
+  </si>
+  <si>
+    <t>1e0edce6-fff6-49d6-af84-104d1a99fdca</t>
+  </si>
+  <si>
+    <t>7b5e8eb9-ff1d-4bbb-8cc7-b63feb74bd7a</t>
+  </si>
+  <si>
+    <t>cdd90a9f-93b9-4c00-a9b0-0732c4dc72c7</t>
+  </si>
+  <si>
+    <t>8f1ce1c0-7396-4948-ab77-d695621d7191</t>
+  </si>
+  <si>
+    <t>055e8f26-bea3-4a50-b7c1-4a4f7b09a055</t>
+  </si>
+  <si>
+    <t>7fd4c39c-049c-47f5-aa42-d7721c2e88f1</t>
+  </si>
+  <si>
+    <t>I类切口手术部位感染率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7e0f25da-920c-4f77-ae99-483ea59c4870</t>
+  </si>
+  <si>
+    <t>707cfbb5-8784-4020-91bc-675bf8b62014</t>
+  </si>
+  <si>
+    <t>d8636b4a-30e3-4583-98dc-0332af0c600a</t>
+  </si>
+  <si>
+    <t>清洁手术切口甲级愈合率</t>
+  </si>
+  <si>
+    <t>8414df48-9807-4a40-af3f-e4863aa78f9d</t>
+  </si>
+  <si>
+    <t>4c16e1f7-48d8-42b1-9748-f3355a35a8c5</t>
+  </si>
+  <si>
+    <t>a472d4af-676b-4703-875b-0112c59641d3</t>
+  </si>
+  <si>
+    <t>d1d5c501-972e-4aea-b972-fde603c8807a</t>
+  </si>
+  <si>
+    <t>1505d2eb-e1de-4603-ae33-d452d9d346db</t>
+  </si>
+  <si>
+    <t>07ba481c-5667-4f25-b5d1-19b0404c8417</t>
+  </si>
+  <si>
+    <t>89bfd5f6-d632-42fb-9947-de6f66da1cef</t>
+  </si>
+  <si>
+    <t>e8165767-7ae4-4639-9887-078653efc46a</t>
+  </si>
+  <si>
+    <t>843bfeef-10e8-4453-8ced-1e0d866519df</t>
+  </si>
+  <si>
+    <t>f0c23d4c-552a-48c7-85d4-c29575dbd02e</t>
+  </si>
+  <si>
+    <t>d5169f4c-2c77-490e-ab49-c6bef94604e6</t>
+  </si>
+  <si>
+    <t>1a2eea90-caa3-4f5c-9651-1ffae0b16232</t>
+  </si>
+  <si>
+    <t>fc80fba6-27cd-455a-ae29-3dad43329e5a</t>
+  </si>
+  <si>
+    <t>b556176a-d5be-4555-8577-c05db1107c36</t>
+  </si>
+  <si>
+    <t>8aead427-0165-4d63-9a3c-29843518fd2c</t>
+  </si>
+  <si>
+    <t>de4b7809-0bf4-4980-81d0-862c9c1a17fd</t>
+  </si>
+  <si>
+    <t>788ec4ae-a7d6-410d-bb08-e4ba6b93a945</t>
+  </si>
+  <si>
+    <t>427332f3-d708-4a4f-83ec-125d3d83332f</t>
+  </si>
+  <si>
+    <t>d010a8e9-1007-4433-a4a9-b99b9b4d7bb1</t>
+  </si>
+  <si>
+    <t>1240f446-77e4-4b03-aac7-8107534c1aaa</t>
+  </si>
+  <si>
+    <t>2ffdfe39-620e-45b5-988f-23f84cbe8b17</t>
+  </si>
+  <si>
+    <t>99ef5473-5482-4726-95ee-b145f95762b9</t>
+  </si>
+  <si>
+    <t>bfc65b60-745e-4246-90c3-9d5e6c043d4e</t>
+  </si>
+  <si>
+    <t>99a7de77-32fe-4e15-9be1-c493ac547eee</t>
+  </si>
+  <si>
+    <t>57352ca5-2c26-438f-9fcb-0bb811fe2dcc</t>
+  </si>
+  <si>
+    <t>02b2233e-a3c6-4aba-bec7-e89beca48d77</t>
+  </si>
+  <si>
+    <t>a9458ff4-191d-4aa4-b2db-fe6314ae4c10</t>
+  </si>
+  <si>
+    <t>d3bb65f4-d7fe-4ac1-9c0a-8e398d9ce132</t>
+  </si>
+  <si>
+    <t>7ff3be6e-4b0d-468c-a609-954529cc1a00</t>
+  </si>
+  <si>
+    <t>23b1af7b-7da7-4c55-9416-099a762c9714</t>
+  </si>
+  <si>
+    <t>c457e26f-3fc2-467c-a4e4-8ba9002a1fc5</t>
+  </si>
+  <si>
+    <t>018be8b6-e20d-4a4c-b2c5-73799a16266a</t>
+  </si>
+  <si>
+    <t>9da54d72-568a-488b-aabe-6c6f82b92c3a</t>
+  </si>
+  <si>
+    <t>fdb22b2e-a43a-4e7a-9848-8894a0dabf6a</t>
+  </si>
+  <si>
+    <t>24b58e00-36e7-40ea-9ffa-56fae549c822</t>
+  </si>
+  <si>
+    <t>dd49b5ea-2f02-460c-b3a3-1b6e3220ed09</t>
+  </si>
+  <si>
+    <t>747ca348-bbbc-4118-99e0-fd620ec62302</t>
+  </si>
+  <si>
+    <t>2a011de2-b8d4-412a-9e3a-f56794c10f66</t>
+  </si>
+  <si>
+    <t>ef5b897b-aa9d-4193-a044-3a19f2ae28bb</t>
+  </si>
+  <si>
+    <t>6449b665-ab81-44c5-936d-d3877543e649</t>
+  </si>
+  <si>
+    <t>15ce5a41-bdac-4e48-bf88-7408cab99fe2</t>
+  </si>
+  <si>
+    <t>5f06e21c-f01e-448d-b253-e729ea36823c</t>
+  </si>
+  <si>
+    <t>fbd23be4-50b8-4321-872b-67e720ff4737</t>
+  </si>
+  <si>
+    <t>1635508e-f97b-470f-a6b2-6c366b93a3a6</t>
+  </si>
+  <si>
+    <t>60f7037a-b60a-4c08-b018-9102fa7eb6c8</t>
+  </si>
+  <si>
+    <t>51b2d0c7-3342-4ec0-92c0-c885c9051902</t>
+  </si>
+  <si>
+    <t>1f773337-98a2-48ee-ae9a-38dc4b1dff6a</t>
+  </si>
+  <si>
+    <t>2ae77ab0-bc54-4b03-a8cc-37d304b5a30d</t>
+  </si>
+  <si>
+    <t>029b47b6-c766-436c-9399-b1a289a6328e</t>
+  </si>
+  <si>
+    <t>ec4681d0-58e3-48ea-a1ae-b3674fb006dc</t>
+  </si>
+  <si>
+    <t>a560a98e-98e9-4303-8241-163c7f49124b</t>
+  </si>
+  <si>
+    <t>6d13d576-1f61-4d9a-a82e-1ba972ab9597</t>
+  </si>
+  <si>
+    <t>3df4ca69-9141-41df-95f1-6c584dd2a9bb</t>
+  </si>
+  <si>
+    <t>9c98de26-5b31-4f19-895b-df1684908e16</t>
+  </si>
+  <si>
+    <t>e84e85e3-2075-4a05-bae5-fdc24342675e</t>
+  </si>
+  <si>
+    <t>fabe40ee-7137-47de-ab74-f1139bd7f157</t>
+  </si>
+  <si>
+    <t>76ea825a-0e07-4575-98cc-da5c5492c340</t>
+  </si>
+  <si>
+    <t>534e06ae-6a75-44a6-8ba8-8161f5be2075</t>
+  </si>
+  <si>
+    <t>5fbe38d0-8bc5-4d70-8df1-b6eec810c7f2</t>
+  </si>
+  <si>
+    <t>椎管内麻醉神经并发症截瘫发生率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be85e01d-c915-4b54-9f7d-646f3135f327</t>
+  </si>
+  <si>
+    <t>e28dd197-027d-4c72-8405-fea95674b2ac</t>
+  </si>
+  <si>
+    <t>add7a139-f96d-4e3e-9812-d63b86c55344</t>
+  </si>
+  <si>
+    <t>医院感染现患率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5261754c-8e00-4502-b7ae-29bd4bcb602c</t>
+  </si>
+  <si>
+    <t>56753436-3a38-4767-a110-19206478716e</t>
+  </si>
+  <si>
+    <t>d32a702b-1b46-4eb0-9f1d-2dd65b1903eb</t>
+  </si>
+  <si>
+    <t>ba06702e-3e98-4ba5-a0cf-0528d9d00a93</t>
+  </si>
+  <si>
+    <t>f9833c99-d7a6-4dc7-9b22-4d82bd4f1702</t>
+  </si>
+  <si>
+    <t>4031c039-4d11-4d06-9da0-04b45e7195a4</t>
+  </si>
+  <si>
+    <t>门诊使用抗菌药物百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e87bdde7-d15b-4334-8f14-b36d036ddb4a</t>
+  </si>
+  <si>
+    <t>0e570d2c-aa55-49f4-9f33-62bf6242dd52</t>
+  </si>
+  <si>
+    <t>53150484-4e95-4863-809f-d9496455b3ba</t>
+  </si>
+  <si>
+    <t>急诊使用抗菌药物百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>使用限制级抗菌药物前病原学送检率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>病理诊断报告在5个工作日内发出率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5674dc8d-98d8-46e1-abb8-29df3ddbc6cf</t>
+  </si>
+  <si>
+    <t>fcbcb412-02b1-49f2-ac62-7f6a58775cc9</t>
+  </si>
+  <si>
+    <t>673a2782-6039-42ac-bd3e-c2bb7a36a38d</t>
+  </si>
+  <si>
+    <t>984a6319-3dc2-4173-9dee-fca582ce9fd1</t>
+  </si>
+  <si>
+    <t>54bb384e-5490-4e95-98ec-337eb41f5754</t>
+  </si>
+  <si>
+    <t>5bca3b15-51a4-4f98-8be3-4324d5173b01</t>
+  </si>
+  <si>
+    <t>康复治疗有效率</t>
+  </si>
+  <si>
+    <t>170581f3-5caf-4b15-8902-e2471f6babd8</t>
+  </si>
+  <si>
+    <t>a9e771ce-8c27-4355-b4e3-b4df0ad590fb</t>
+  </si>
+  <si>
+    <t>430afe4b-61fd-42f7-9d72-f02ce3469879</t>
+  </si>
+  <si>
+    <t>745c0e33-82fb-4526-847d-417d4e1996ef</t>
+  </si>
+  <si>
+    <t>59c9f00d-a91c-4cf3-8944-dc2d5d2b4cba</t>
+  </si>
+  <si>
+    <t>68021ad2-e63b-4fb9-b28f-c0535f625503</t>
+  </si>
+  <si>
+    <t>5bf78eca-bdf3-4d0f-ad95-6bdecec82676</t>
+  </si>
+  <si>
+    <t>909dd780-d6fe-4d0b-8372-6d7edf5d67c8</t>
+  </si>
+  <si>
+    <t>a84d1b1c-b625-472c-868f-35b1da7310d9</t>
+  </si>
+  <si>
+    <t>f9f8897e-d16d-4cfe-bb99-bf064ad13c94</t>
+  </si>
+  <si>
+    <t>ce39743e-bfcb-4c5d-8f18-3961042f0e3a</t>
+  </si>
+  <si>
+    <t>6cda01cd-ce7b-4e0d-9fe7-1bb20bf55288</t>
+  </si>
+  <si>
+    <t>0e34b474-02fa-4647-bc2b-acfa392a4700</t>
+  </si>
+  <si>
+    <t>e8d6f6b1-6e55-48ab-a0ab-33772201576b</t>
+  </si>
+  <si>
+    <t>710fe8a7-526f-4823-b8cd-b8121968e71a</t>
+  </si>
+  <si>
+    <t>8dc1056b-4cfc-4e14-bceb-eb7190e64fed</t>
+  </si>
+  <si>
+    <t>ba59a3f4-e13f-414c-8f94-b4d0f90ef55a</t>
+  </si>
+  <si>
+    <t>f55a8484-da08-4a7a-822d-eac010634632</t>
+  </si>
+  <si>
+    <t>c381e1d9-9f37-4c29-b790-3fa04adb8363</t>
+  </si>
+  <si>
+    <t>1bbdd4d1-a7b7-41bf-9186-7eddc7d34e77</t>
+  </si>
+  <si>
+    <t>临检常规项目平均时长【平诊】（体检项目除外）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2f0edba5-d0eb-4dab-ac75-282236002b21</t>
+  </si>
+  <si>
+    <t>1deeb8e3-234e-4053-ab80-8026e75f9c00</t>
+  </si>
+  <si>
+    <t>31537474-fa70-4abc-87a7-a9716928fc32</t>
+  </si>
+  <si>
+    <t>生化、免疫常规项目平均时长【平诊】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4488af25-626d-44bb-8479-c622940a4492</t>
+  </si>
+  <si>
+    <t>e7d0961c-db45-48e3-a375-e8828b5fed88</t>
+  </si>
+  <si>
+    <t>8bb39731-016c-4a21-85fb-224b657f25e9</t>
+  </si>
+  <si>
+    <t>fd596bd2-505f-43c3-93d1-da0568bbf956</t>
+  </si>
+  <si>
+    <t>8b817e74-8261-4cb1-bf7b-f40daf097d10</t>
+  </si>
+  <si>
+    <t>a2e1789e-c85b-4422-bfd4-1a73219ab13a</t>
+  </si>
+  <si>
+    <t>0501e7d1-1110-449b-babf-ad2965667d07</t>
+  </si>
+  <si>
+    <t>8dca34c1-0f94-4e35-929e-9a42177958cb</t>
+  </si>
+  <si>
+    <t>a4623fb2-4d94-4d5a-a20e-1b8b6e44bc1c</t>
+  </si>
+  <si>
     <t>第一操作数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -38,553 +590,166 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>操作符</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>b03597b4-3c74-4a1c-850e-773da10b8797</t>
-  </si>
-  <si>
-    <t>c31950eb-76e4-44c3-908f-8ebd819d1129</t>
-  </si>
-  <si>
-    <t>813d2540-f5c2-44aa-a25b-52ef3e5c84e4</t>
-  </si>
-  <si>
-    <t>病床使用率</t>
-  </si>
-  <si>
-    <t>a4b55620-3bdc-4c97-9f19-7f3a554846e8</t>
-  </si>
-  <si>
-    <t>0d63c949-4568-4062-93a2-ca3f2dee31bb</t>
-  </si>
-  <si>
-    <t>20d3efae-1f40-45a2-bacd-16a64a7a8da8</t>
-  </si>
-  <si>
     <t>人均住院天数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>74905836-6550-4e85-9087-c25d90e4f7f0</t>
-  </si>
-  <si>
-    <t>f0a7a2b2-325e-4bfe-a674-ff34cff45a26</t>
-  </si>
-  <si>
-    <t>CD型病例比例</t>
-  </si>
-  <si>
-    <t>854f571f-1f0d-44b2-8e16-66efb8d8ddb8</t>
-  </si>
-  <si>
-    <t>99fff72c-c59a-4bfb-b80e-2f03c4a26b6d</t>
-  </si>
-  <si>
-    <t>d8fd5d5a-2453-4aa0-a5b2-16c8cbdb31e4</t>
-  </si>
-  <si>
-    <t>药品费用比例</t>
-  </si>
-  <si>
-    <t>588a17e1-e96b-4216-8ec1-0c9d2cd13096</t>
-  </si>
-  <si>
-    <t>4d8c228b-8b1d-49d6-b83d-10e9b23ad54a</t>
-  </si>
-  <si>
-    <t>病历回收率</t>
-  </si>
-  <si>
-    <t>5522161d-e639-4f8e-bb45-d9008494fd95</t>
-  </si>
-  <si>
-    <t>0cb30600-abbb-4f51-a8e0-e2b4095e3874</t>
-  </si>
-  <si>
-    <t>63b9ab7c-52c4-4be7-8172-09ceda8912f0</t>
-  </si>
-  <si>
     <t>医院感染发病率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>d94ea76a-8e91-486e-97f4-ee2ca5e309a2</t>
-  </si>
-  <si>
-    <t>51f54ac1-b8af-40ac-8897-d5b07fe6f8a6</t>
-  </si>
-  <si>
     <t>医院感染例次率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>68cfea10-2e39-4dce-96e1-51101b129791</t>
-  </si>
-  <si>
-    <t>d7c81261-76a0-4727-8841-366e8f101833</t>
-  </si>
-  <si>
-    <t>医院感染漏报率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b2d132f2-2120-4eb2-a184-0bb993eec424</t>
-  </si>
-  <si>
-    <t>00fc9ede-5319-458f-a5ac-78b592b96446</t>
-  </si>
-  <si>
-    <t>9b3a6011-5b20-430d-ac8e-dccab9b830fb</t>
-  </si>
-  <si>
     <t>使用非限制级抗菌药物前病原学送检率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>a15a4c95-52ba-49e9-a26d-ec950684e640</t>
-  </si>
-  <si>
-    <t>40186f98-50b6-4b7c-a916-c390929aca9d</t>
-  </si>
-  <si>
-    <t>a276151a-8d3c-4c2d-8b82-99c8fb935b81</t>
-  </si>
-  <si>
-    <t>使用限制级抗菌药物前病原学送检率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1be3a708-c4f4-4448-94c1-fa9b781cb316</t>
-  </si>
-  <si>
-    <t>f4f2e6ed-50cd-43b4-8363-f5c0ef202a6f</t>
-  </si>
-  <si>
-    <t>84433791-f745-406a-8cd0-4ca28986b74e</t>
-  </si>
-  <si>
-    <t>使用特殊级抗菌药物前病原学送检率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb6dc67a-d1a2-43b7-8421-560bded35074</t>
-  </si>
-  <si>
-    <t>af0c00f8-d223-4833-8210-6924b1ae0cef</t>
-  </si>
-  <si>
-    <t>057f35d2-97ee-4f49-9cd6-ef202846b2db</t>
-  </si>
-  <si>
     <t>洗手正确率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>24a96b25-507d-41d9-98b5-6f7b84560362</t>
-  </si>
-  <si>
-    <t>52f06d0d-cfdf-49db-bc31-c8955d3f75e1</t>
-  </si>
-  <si>
-    <t>59feb332-349b-4c35-9d17-fa5d4c9223c6</t>
-  </si>
-  <si>
     <t>手卫生依从率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>18e97da0-bd96-4216-b639-2fec2ff24c36</t>
-  </si>
-  <si>
-    <t>608ff377-55e5-463e-9b3b-aba9160fbad9</t>
-  </si>
-  <si>
     <t>住院病人抗菌药物使用率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>a47c964c-a30e-4ca3-ba41-47ec1c9e76b6</t>
-  </si>
-  <si>
-    <t>bbab2916-13c7-4391-899c-7c3f324ed0ac</t>
-  </si>
-  <si>
-    <t>抗菌药物使用强度</t>
-  </si>
-  <si>
-    <t>ba859fa5-1303-4b96-8c87-3eee63c7270b</t>
-  </si>
-  <si>
-    <t>0a7df170-d7d3-421b-8302-50cb2c08cf38</t>
-  </si>
-  <si>
-    <t>3ae71115-c7ba-4ec8-a847-7b16a8f5b1fc</t>
-  </si>
-  <si>
     <t>四级手术比例</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1e0edce6-fff6-49d6-af84-104d1a99fdca</t>
-  </si>
-  <si>
-    <t>7b5e8eb9-ff1d-4bbb-8cc7-b63feb74bd7a</t>
-  </si>
-  <si>
-    <t>cdd90a9f-93b9-4c00-a9b0-0732c4dc72c7</t>
-  </si>
-  <si>
     <t>手术部位感染发病率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>8f1ce1c0-7396-4948-ab77-d695621d7191</t>
-  </si>
-  <si>
-    <t>055e8f26-bea3-4a50-b7c1-4a4f7b09a055</t>
-  </si>
-  <si>
-    <t>7fd4c39c-049c-47f5-aa42-d7721c2e88f1</t>
-  </si>
-  <si>
-    <t>I类切口手术部位感染率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7e0f25da-920c-4f77-ae99-483ea59c4870</t>
-  </si>
-  <si>
-    <t>707cfbb5-8784-4020-91bc-675bf8b62014</t>
-  </si>
-  <si>
-    <t>d8636b4a-30e3-4583-98dc-0332af0c600a</t>
-  </si>
-  <si>
-    <t>清洁手术切口甲级愈合率</t>
-  </si>
-  <si>
-    <t>8414df48-9807-4a40-af3f-e4863aa78f9d</t>
-  </si>
-  <si>
-    <t>4c16e1f7-48d8-42b1-9748-f3355a35a8c5</t>
-  </si>
-  <si>
-    <t>a472d4af-676b-4703-875b-0112c59641d3</t>
-  </si>
-  <si>
     <t>常规诊断报告准确率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>d1d5c501-972e-4aea-b972-fde603c8807a</t>
-  </si>
-  <si>
-    <t>1505d2eb-e1de-4603-ae33-d452d9d346db</t>
-  </si>
-  <si>
-    <t>07ba481c-5667-4f25-b5d1-19b0404c8417</t>
-  </si>
-  <si>
-    <t>病理诊断报告在5个工作日内发出率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>89bfd5f6-d632-42fb-9947-de6f66da1cef</t>
-  </si>
-  <si>
-    <t>e8165767-7ae4-4639-9887-078653efc46a</t>
-  </si>
-  <si>
-    <t>843bfeef-10e8-4453-8ced-1e0d866519df</t>
-  </si>
-  <si>
     <t>病理报告书内容与格式书写合格率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>f0c23d4c-552a-48c7-85d4-c29575dbd02e</t>
-  </si>
-  <si>
-    <t>d5169f4c-2c77-490e-ab49-c6bef94604e6</t>
-  </si>
-  <si>
-    <t>1a2eea90-caa3-4f5c-9651-1ffae0b16232</t>
-  </si>
-  <si>
     <t>手术冰冻与石蜡诊断符合率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fc80fba6-27cd-455a-ae29-3dad43329e5a</t>
-  </si>
-  <si>
-    <t>b556176a-d5be-4555-8577-c05db1107c36</t>
-  </si>
-  <si>
-    <t>8aead427-0165-4d63-9a3c-29843518fd2c</t>
-  </si>
-  <si>
-    <t>医学影像诊断与手术后符合率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>de4b7809-0bf4-4980-81d0-862c9c1a17fd</t>
-  </si>
-  <si>
-    <t>788ec4ae-a7d6-410d-bb08-e4ba6b93a945</t>
-  </si>
-  <si>
-    <t>427332f3-d708-4a4f-83ec-125d3d83332f</t>
+    <t>医学影像诊断与手术后符合率【超声】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>检测项目时限符合率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>d010a8e9-1007-4433-a4a9-b99b9b4d7bb1</t>
-  </si>
-  <si>
-    <t>1240f446-77e4-4b03-aac7-8107534c1aaa</t>
-  </si>
-  <si>
-    <t>2ffdfe39-620e-45b5-988f-23f84cbe8b17</t>
-  </si>
-  <si>
     <t>POCT项目对比率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>99ef5473-5482-4726-95ee-b145f95762b9</t>
-  </si>
-  <si>
-    <t>bfc65b60-745e-4246-90c3-9d5e6c043d4e</t>
-  </si>
-  <si>
-    <t>99a7de77-32fe-4e15-9be1-c493ac547eee</t>
-  </si>
-  <si>
     <t>危急值报告及时性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>57352ca5-2c26-438f-9fcb-0bb811fe2dcc</t>
-  </si>
-  <si>
-    <t>02b2233e-a3c6-4aba-bec7-e89beca48d77</t>
-  </si>
-  <si>
-    <t>a9458ff4-191d-4aa4-b2db-fe6314ae4c10</t>
-  </si>
-  <si>
     <t>血管内导管相关血流感染发病率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>d3bb65f4-d7fe-4ac1-9c0a-8e398d9ce132</t>
-  </si>
-  <si>
-    <t>7ff3be6e-4b0d-468c-a609-954529cc1a00</t>
-  </si>
-  <si>
-    <t>23b1af7b-7da7-4c55-9416-099a762c9714</t>
-  </si>
-  <si>
     <t>呼吸机相关肺炎发病率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>c457e26f-3fc2-467c-a4e4-8ba9002a1fc5</t>
-  </si>
-  <si>
-    <t>018be8b6-e20d-4a4c-b2c5-73799a16266a</t>
-  </si>
-  <si>
-    <t>9da54d72-568a-488b-aabe-6c6f82b92c3a</t>
-  </si>
-  <si>
     <t>导尿管相关泌尿系感染发病率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fdb22b2e-a43a-4e7a-9848-8894a0dabf6a</t>
-  </si>
-  <si>
-    <t>24b58e00-36e7-40ea-9ffa-56fae549c822</t>
-  </si>
-  <si>
-    <t>dd49b5ea-2f02-460c-b3a3-1b6e3220ed09</t>
-  </si>
-  <si>
     <t>大型X线设备检查阳性率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>747ca348-bbbc-4118-99e0-fd620ec62302</t>
-  </si>
-  <si>
-    <t>2a011de2-b8d4-412a-9e3a-f56794c10f66</t>
-  </si>
-  <si>
-    <t>ef5b897b-aa9d-4193-a044-3a19f2ae28bb</t>
-  </si>
-  <si>
     <t>CT检查阳性率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6449b665-ab81-44c5-936d-d3877543e649</t>
-  </si>
-  <si>
-    <t>15ce5a41-bdac-4e48-bf88-7408cab99fe2</t>
-  </si>
-  <si>
-    <t>5f06e21c-f01e-448d-b253-e729ea36823c</t>
-  </si>
-  <si>
     <t>MRI检查阳性率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fbd23be4-50b8-4321-872b-67e720ff4737</t>
-  </si>
-  <si>
-    <t>1635508e-f97b-470f-a6b2-6c366b93a3a6</t>
-  </si>
-  <si>
-    <t>60f7037a-b60a-4c08-b018-9102fa7eb6c8</t>
-  </si>
-  <si>
-    <t>医学影像诊断与手术后符合率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>51b2d0c7-3342-4ec0-92c0-c885c9051902</t>
-  </si>
-  <si>
-    <t>1f773337-98a2-48ee-ae9a-38dc4b1dff6a</t>
-  </si>
-  <si>
-    <t>2ae77ab0-bc54-4b03-a8cc-37d304b5a30d</t>
+    <t>医学影像诊断与手术后符合率【放射】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>硬膜外阻滞成功率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>029b47b6-c766-436c-9399-b1a289a6328e</t>
-  </si>
-  <si>
-    <t>ec4681d0-58e3-48ea-a1ae-b3674fb006dc</t>
-  </si>
-  <si>
-    <t>a560a98e-98e9-4303-8241-163c7f49124b</t>
-  </si>
-  <si>
     <t>神经阻滞麻醉成功率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6d13d576-1f61-4d9a-a82e-1ba972ab9597</t>
-  </si>
-  <si>
-    <t>3df4ca69-9141-41df-95f1-6c584dd2a9bb</t>
-  </si>
-  <si>
-    <t>9c98de26-5b31-4f19-895b-df1684908e16</t>
-  </si>
-  <si>
     <t>硬膜外麻醉硬脊膜穿破发生率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>e84e85e3-2075-4a05-bae5-fdc24342675e</t>
-  </si>
-  <si>
-    <t>fabe40ee-7137-47de-ab74-f1139bd7f157</t>
-  </si>
-  <si>
-    <t>76ea825a-0e07-4575-98cc-da5c5492c340</t>
-  </si>
-  <si>
     <t>椎管内麻醉神经并发症发生率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>534e06ae-6a75-44a6-8ba8-8161f5be2075</t>
-  </si>
-  <si>
-    <t>5fbe38d0-8bc5-4d70-8df1-b6eec810c7f2</t>
-  </si>
-  <si>
-    <t>椎管内麻醉神经并发症截瘫发生率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>be85e01d-c915-4b54-9f7d-646f3135f327</t>
-  </si>
-  <si>
-    <t>e28dd197-027d-4c72-8405-fea95674b2ac</t>
-  </si>
-  <si>
-    <t>add7a139-f96d-4e3e-9812-d63b86c55344</t>
-  </si>
-  <si>
-    <t>医院感染现患率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5261754c-8e00-4502-b7ae-29bd4bcb602c</t>
-  </si>
-  <si>
-    <t>56753436-3a38-4767-a110-19206478716e</t>
-  </si>
-  <si>
-    <t>d32a702b-1b46-4eb0-9f1d-2dd65b1903eb</t>
-  </si>
-  <si>
     <t>I类切口手术抗菌药物预防使用率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ba06702e-3e98-4ba5-a0cf-0528d9d00a93</t>
-  </si>
-  <si>
-    <t>f9833c99-d7a6-4dc7-9b22-4d82bd4f1702</t>
-  </si>
-  <si>
-    <t>4031c039-4d11-4d06-9da0-04b45e7195a4</t>
-  </si>
-  <si>
-    <t>门诊使用抗菌药物百分比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>e87bdde7-d15b-4334-8f14-b36d036ddb4a</t>
-  </si>
-  <si>
-    <t>0e570d2c-aa55-49f4-9f33-62bf6242dd52</t>
-  </si>
-  <si>
-    <t>53150484-4e95-4863-809f-d9496455b3ba</t>
-  </si>
-  <si>
-    <t>急诊使用抗菌药物百分比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>division</t>
+    <t>基药使用比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>住院患者康复功能评定率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备完好率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻醉相关死亡率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约诊疗率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>临检常规项目平均时长【急诊】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生化、免疫常规项目平均时长【急诊】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微生物常规项目平均时长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规检查结果报告平均时长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊诊疗检查报告平均时长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -962,13 +1127,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -985,747 +1150,968 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>55</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>102</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>114</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>138</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="D53" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C44" s="2" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="B54" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>169</v>
+      <c r="D54" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
